--- a/Results/Graphs_report/tables.xlsx
+++ b/Results/Graphs_report/tables.xlsx
@@ -127,7 +127,7 @@
         <v>0.4</v>
       </c>
       <c r="E2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="3">
@@ -141,10 +141,10 @@
         <v>16.65</v>
       </c>
       <c r="D3" t="n">
-        <v>31.2</v>
+        <v>31.4</v>
       </c>
       <c r="E3" t="n">
-        <v>36.55</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="4">
@@ -155,13 +155,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>59.8</v>
+        <v>59.6</v>
       </c>
       <c r="D4" t="n">
-        <v>78.4</v>
+        <v>78.3</v>
       </c>
       <c r="E4" t="n">
-        <v>69.4</v>
+        <v>69.25</v>
       </c>
     </row>
     <row r="5">
@@ -172,13 +172,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>83.7</v>
+        <v>81.4</v>
       </c>
       <c r="D5" t="n">
-        <v>89.6</v>
+        <v>88.1</v>
       </c>
       <c r="E5" t="n">
-        <v>92.0</v>
+        <v>91.35</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Graphs_report/tables.xlsx
+++ b/Results/Graphs_report/tables.xlsx
@@ -127,7 +127,7 @@
         <v>0.4</v>
       </c>
       <c r="E2" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="3">
@@ -138,13 +138,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>16.65</v>
+        <v>16.2</v>
       </c>
       <c r="D3" t="n">
-        <v>31.4</v>
+        <v>30.2</v>
       </c>
       <c r="E3" t="n">
-        <v>36.3</v>
+        <v>35.25</v>
       </c>
     </row>
     <row r="4">
@@ -155,13 +155,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>59.6</v>
+        <v>58.45</v>
       </c>
       <c r="D4" t="n">
-        <v>78.3</v>
+        <v>77.7</v>
       </c>
       <c r="E4" t="n">
-        <v>69.25</v>
+        <v>68.4</v>
       </c>
     </row>
     <row r="5">
@@ -172,7 +172,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>81.4</v>
+        <v>81.35</v>
       </c>
       <c r="D5" t="n">
         <v>88.1</v>
